--- a/docs/specification.xlsx
+++ b/docs/specification.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yui00\src\prepare-to-pack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF96D9-64A1-4EEC-80D1-E0869252E186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDABB4-787F-462F-A587-F14DD2062DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gift" sheetId="3" r:id="rId1"/>
-    <sheet name="Box" sheetId="4" r:id="rId2"/>
-    <sheet name="Document Design" sheetId="1" r:id="rId3"/>
-    <sheet name="ProcessMultipleItems" sheetId="5" r:id="rId4"/>
+    <sheet name="Headers" sheetId="6" r:id="rId1"/>
+    <sheet name="Gift" sheetId="3" r:id="rId2"/>
+    <sheet name="Box" sheetId="4" r:id="rId3"/>
+    <sheet name="Document Design" sheetId="1" r:id="rId4"/>
+    <sheet name="ProcessMultipleItems" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="185">
   <si>
     <t>Condition</t>
   </si>
@@ -275,18 +276,6 @@
     <t>Add column</t>
   </si>
   <si>
-    <t>Find the column "주문서추가항목" (Order Additional Item) and insert a new column after it.</t>
-  </si>
-  <si>
-    <t>In the newly added column, enter the text "사은품" (Gift) in the first cell.</t>
-  </si>
-  <si>
-    <t>If the value in the "주문 시 회원등급" (Member Grade) column is "SILVER", "FAMILY", or "LALA", set the background color of the "사은품" (Gift) cell to orange (RGB(254, 205, 168)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display the value from the "주문서추가항목" column. If the column is empty, display the value from the "견묘종" (Pet Type) column. </t>
-  </si>
-  <si>
     <t>Set the header name</t>
   </si>
   <si>
@@ -302,12 +291,6 @@
     <t>Display Required Box Types and Quantities</t>
   </si>
   <si>
-    <t>1. For each product, extract the weight from the Options column. If the Options column does not contain weight information, refer to the value in the Weight column.</t>
-  </si>
-  <si>
-    <t>2. Multiply the extracted weight by the value in the Quantity column to calculate the Total Weight for each row.</t>
-  </si>
-  <si>
     <t>3. For each order number, sum the Total Weight of all rows associated with that order number.</t>
   </si>
   <si>
@@ -372,14 +355,262 @@
   </si>
   <si>
     <t>raw data</t>
+  </si>
+  <si>
+    <t>Restructured Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매출경로  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문번호  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문자명  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">브랜드  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상품명(한국어 쇼핑몰)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상품옵션  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수량  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수령인  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문서추가항목01_사은품 선택 (공통입력사항)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">옵션+판매가  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문 상태  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수령인 주소(전체)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">배송메시지  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">중량  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">정기배송 회차  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">상품코드  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">회원추가항목_반려견/반려묘의 종류  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문 시 회원등급  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">품목별 주문번호  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">운송장번호  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수령인 전화번호  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수령인 휴대전화  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수령인 우편번호  </t>
+  </si>
+  <si>
+    <t>주문상품명(옵션포함)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales_channel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_number  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderer_name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_name  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gift_selection  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_status  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipient_address  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery_message  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscription_cycle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product_code  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pet_type  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership_level  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tracking_number  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipient_phone  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipient_mobile  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipient_zip_code  </t>
+  </si>
+  <si>
+    <t>Headers of raw data</t>
+  </si>
+  <si>
+    <t>Headers of raw data(Eng)</t>
+  </si>
+  <si>
+    <t>product_name_with_option</t>
+  </si>
+  <si>
+    <t>line_item_number</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option  </t>
+  </si>
+  <si>
+    <t>recipient_name</t>
+  </si>
+  <si>
+    <t>Find the column "gift_selection" and insert a new column after it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the value from the "gift_selection" column. If the column is empty, display the value from the "pet_type" column. </t>
+  </si>
+  <si>
+    <t>``</t>
+  </si>
+  <si>
+    <t>Added headers</t>
+  </si>
+  <si>
+    <t>Added headers(Eng)</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>In the newly added column, enter the text "gift" in the first cell.</t>
+  </si>
+  <si>
+    <t>If the value in the "membership_level" column is "SILVER", "FAMILY", or "LALA", set the background color of the "gift" cell to orange (RGB(254, 205, 168)).</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>1. For each product, extract the weight from the "option" column. If it does not contain weight information, refer to the value in the "weight" column.</t>
+  </si>
+  <si>
+    <t>2. Multiply the extracted weight by the value in the "quantity" column to calculate the Total Weight for each row.</t>
+  </si>
+  <si>
+    <t>Add "box" column</t>
+  </si>
+  <si>
+    <t>Add a new column with the header '박스(box)' after the rightmost column.</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>&lt;1</t>
+  </si>
+  <si>
+    <t>&lt; 2</t>
+  </si>
+  <si>
+    <t>&lt; 3.8</t>
+  </si>
+  <si>
+    <t>&lt; 8</t>
+  </si>
+  <si>
+    <t>If the brand is "Royal Canin" and the quantity is 2, then 104; otherwise, 420.</t>
+  </si>
+  <si>
+    <t>&lt;= 4</t>
+  </si>
+  <si>
+    <t>&lt;= 4.3</t>
+  </si>
+  <si>
+    <t>&gt;=8</t>
+  </si>
+  <si>
+    <t>냉장배송(스티로폼 박스 + 아이스팩)</t>
+  </si>
+  <si>
+    <t>아이스</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -407,9 +638,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -425,148 +660,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51485</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>49711</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>108799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D7EA8A-F612-8B6F-E3A9-7617D6B857AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1711924"/>
-          <a:ext cx="8853900" cy="3193699"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>79186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>116754</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>178903</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BBB4390-99AC-0F19-1BE2-E682E9661ABE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="425450" y="1552386"/>
-          <a:ext cx="13737504" cy="6176667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>197096</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281051</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>80131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71A8913-E3DD-41C8-BA2C-DB116734440E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="197096" y="7905750"/>
-          <a:ext cx="8643755" cy="3959981"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,12 +978,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E853E5-2052-44E3-B99E-3F9252F73583}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ED63C9-D671-472D-834A-EB83C0BC9413}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="148" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,50 +1234,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
+      <c r="A1" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DE26E-6CC6-4DC9-BF8C-D98385BE5287}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,55 +1294,134 @@
     <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF41FC-B34F-4094-BC34-B5E2A0A724BD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="101" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1217,22 +1640,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1243,16 +1663,16 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1263,16 +1683,16 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1280,16 +1700,19 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1000</v>
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1300,16 +1723,16 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1317,39 +1740,39 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1780,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1366,10 +1789,10 @@
         <v>43</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1377,7 +1800,7 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1386,10 +1809,10 @@
         <v>43</v>
       </c>
       <c r="G20">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>40</v>
       </c>
@@ -1397,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1406,10 +1829,10 @@
         <v>43</v>
       </c>
       <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1840,7 @@
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
@@ -1426,10 +1849,10 @@
         <v>43</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>40</v>
       </c>
@@ -1437,7 +1860,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
@@ -1446,10 +1869,10 @@
         <v>43</v>
       </c>
       <c r="G23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -1457,7 +1880,7 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -1466,10 +1889,10 @@
         <v>43</v>
       </c>
       <c r="G24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1900,7 @@
         <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1486,10 +1909,10 @@
         <v>43</v>
       </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -1506,10 +1929,10 @@
         <v>43</v>
       </c>
       <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -1517,7 +1940,7 @@
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
@@ -1529,7 +1952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>40</v>
       </c>
@@ -1537,7 +1960,7 @@
         <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -1546,10 +1969,10 @@
         <v>43</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>40</v>
       </c>
@@ -1557,7 +1980,7 @@
         <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
@@ -1569,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +2000,7 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1589,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>40</v>
       </c>
@@ -1597,7 +2020,7 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1606,10 +2029,10 @@
         <v>43</v>
       </c>
       <c r="G31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -1626,7 +2049,7 @@
         <v>43</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
@@ -1637,7 +2060,7 @@
         <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
@@ -1646,7 +2069,7 @@
         <v>43</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
@@ -1657,7 +2080,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
@@ -1666,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
@@ -1677,7 +2100,7 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -1686,7 +2109,7 @@
         <v>43</v>
       </c>
       <c r="G35">
-        <v>3.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
@@ -1697,7 +2120,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
@@ -1706,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
@@ -1717,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
@@ -1734,10 +2157,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
@@ -1745,8 +2168,8 @@
       <c r="F38" t="s">
         <v>43</v>
       </c>
-      <c r="G38" t="s">
-        <v>60</v>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
@@ -1754,7 +2177,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
@@ -1766,7 +2189,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
@@ -1786,7 +2209,7 @@
         <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
@@ -1806,7 +2229,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
@@ -1826,7 +2249,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
@@ -1846,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
@@ -1866,7 +2289,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
@@ -1886,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
@@ -1906,7 +2329,7 @@
         <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
@@ -1926,7 +2349,7 @@
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
@@ -1946,6 +2369,26 @@
         <v>43</v>
       </c>
       <c r="G48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1954,13 +2397,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796E7C6F-E624-4B56-B53A-7A42F7E1F422}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1971,41 +2414,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>92</v>
+      <c r="A1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2013,13 +2456,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2027,13 +2470,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2041,13 +2484,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -2055,13 +2498,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2069,56 +2512,61 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I14">
         <v>4</v>
@@ -2126,19 +2574,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2146,13 +2594,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16">
         <v>1</v>

--- a/docs/specification.xlsx
+++ b/docs/specification.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yui00\src\prepare-to-pack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDABB4-787F-462F-A587-F14DD2062DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68D623-44B9-4C4C-99F9-351D7D6FE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="6" r:id="rId1"/>
-    <sheet name="Gift" sheetId="3" r:id="rId2"/>
-    <sheet name="Box" sheetId="4" r:id="rId3"/>
-    <sheet name="Document Design" sheetId="1" r:id="rId4"/>
-    <sheet name="ProcessMultipleItems" sheetId="5" r:id="rId5"/>
+    <sheet name="Order List" sheetId="3" r:id="rId2"/>
+    <sheet name="Document Design" sheetId="1" r:id="rId3"/>
+    <sheet name="Hanjin" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="190">
   <si>
     <t>Condition</t>
   </si>
@@ -129,21 +128,12 @@
     <t>-</t>
   </si>
   <si>
-    <t>수량</t>
-  </si>
-  <si>
     <t>Target Column</t>
   </si>
   <si>
     <t>fill red</t>
   </si>
   <si>
-    <t xml:space="preserve">주문번호 </t>
-  </si>
-  <si>
-    <t>정기배송 회차</t>
-  </si>
-  <si>
     <t>not null</t>
   </si>
   <si>
@@ -156,9 +146,6 @@
     <t xml:space="preserve">Conditional formatting  </t>
   </si>
   <si>
-    <t>If the same 주문번호 appears multiple times</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -174,36 +161,15 @@
     <t>Default</t>
   </si>
   <si>
-    <t>매출경로</t>
-  </si>
-  <si>
     <t>주문번호</t>
   </si>
   <si>
-    <t>브랜드</t>
-  </si>
-  <si>
-    <t>수령인</t>
-  </si>
-  <si>
     <t>사은품</t>
   </si>
   <si>
-    <t>주문 시 회원등급</t>
-  </si>
-  <si>
-    <t>주문 상태</t>
-  </si>
-  <si>
-    <t>배송메시지</t>
-  </si>
-  <si>
     <t>박스</t>
   </si>
   <si>
-    <t>상품코드</t>
-  </si>
-  <si>
     <t>Cell Formatting</t>
   </si>
   <si>
@@ -595,6 +561,54 @@
   </si>
   <si>
     <t>ice</t>
+  </si>
+  <si>
+    <t>Assign a serial number to each row.</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Add "연번" column</t>
+  </si>
+  <si>
+    <t>Add a new column called "연번(Serial Number)" as the leftmost column.</t>
+  </si>
+  <si>
+    <t>serial_number</t>
+  </si>
+  <si>
+    <t>20241101-0000017</t>
+  </si>
+  <si>
+    <t>20241101-0000025</t>
+  </si>
+  <si>
+    <t>20241101-0000047</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>If there are multiple rows with the same order_number, assign a serial number only to the first occurrence and leave the rest blank.</t>
+  </si>
+  <si>
+    <t>sales_channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_number </t>
+  </si>
+  <si>
+    <t>If the same order_number appears multiple times</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>If an item with the same order_number has the product name "냉장배송(스티로폼 박스 + 아이스팩)" ignore the weight and set it to "Ice."</t>
+  </si>
+  <si>
+    <t>ProcessMultipleItems</t>
   </si>
 </sst>
 </file>
@@ -638,12 +652,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,7 +1000,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -995,223 +1012,229 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1222,10 +1245,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0ED63C9-D671-472D-834A-EB83C0BC9413}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView zoomScale="148" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,46 +1256,259 @@
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="C35" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>165</v>
+      </c>
+      <c r="C38" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1281,139 +1517,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5DE26E-6CC6-4DC9-BF8C-D98385BE5287}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="35.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="3">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="3">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF41FC-B34F-4094-BC34-B5E2A0A724BD}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I49"/>
@@ -1421,7 +1524,7 @@
     <sheetView topLeftCell="B1" zoomScale="101" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1456,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1467,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1476,7 +1579,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1487,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1504,7 +1607,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1521,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1538,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1555,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1572,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -1589,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1606,10 +1709,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1626,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -1643,87 +1746,87 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="F16">
         <v>1000</v>
@@ -1734,59 +1837,59 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>2.25</v>
@@ -1794,19 +1897,19 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1814,19 +1917,19 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>8.1300000000000008</v>
@@ -1834,19 +1937,19 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>6</v>
@@ -1854,19 +1957,19 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1874,19 +1977,19 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -1894,19 +1997,19 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G25">
         <v>9</v>
@@ -1914,19 +2017,19 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1934,19 +2037,19 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -1954,19 +2057,19 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>6</v>
@@ -1974,19 +2077,19 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="E29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1994,19 +2097,19 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2014,19 +2117,19 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2034,19 +2137,19 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>8</v>
@@ -2054,19 +2157,19 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2074,19 +2177,19 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>29</v>
@@ -2094,19 +2197,19 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>13</v>
@@ -2114,19 +2217,19 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
         <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>3.2</v>
@@ -2134,19 +2237,19 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
         <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2154,19 +2257,19 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2174,222 +2277,222 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
         <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
         <v>59</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
         <v>28</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2397,13 +2500,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796E7C6F-E624-4B56-B53A-7A42F7E1F422}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2414,195 +2517,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>104</v>
+      <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>105</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>

--- a/docs/specification.xlsx
+++ b/docs/specification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yui00\src\prepare-to-pack\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A68D623-44B9-4C4C-99F9-351D7D6FE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DED836-826A-4D46-9419-0247BCFFD5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="1" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{48CDECB9-D0A6-43CF-B923-4C78336F5D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="6" r:id="rId1"/>
@@ -521,9 +521,6 @@
     <t>box</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -572,9 +569,6 @@
     <t>Add "연번" column</t>
   </si>
   <si>
-    <t>Add a new column called "연번(Serial Number)" as the leftmost column.</t>
-  </si>
-  <si>
     <t>serial_number</t>
   </si>
   <si>
@@ -609,6 +603,12 @@
   </si>
   <si>
     <t>ProcessMultipleItems</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Add a new column called "연번(Serial Number)"</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1063,7 +1063,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1247,8 +1247,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="148" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1258,23 +1258,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1282,7 +1282,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1312,31 +1312,31 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1344,12 +1344,12 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1438,10 +1438,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" t="s">
         <v>160</v>
-      </c>
-      <c r="B31" t="s">
-        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>159</v>
@@ -1449,15 +1449,15 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3">
         <v>73</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" s="3">
         <v>194</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C35" s="3">
         <v>41</v>
@@ -1481,15 +1481,15 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3">
         <v>104</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3">
         <v>170</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3">
         <v>266</v>
@@ -1524,7 +1524,7 @@
     <sheetView topLeftCell="B1" zoomScale="101" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1752,10 +1752,10 @@
         <v>123</v>
       </c>
       <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
         <v>170</v>
-      </c>
-      <c r="G12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1786,10 +1786,10 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
@@ -1872,7 +1872,7 @@
         <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
@@ -1883,7 +1883,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
@@ -1903,7 +1903,7 @@
         <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -1923,7 +1923,7 @@
         <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -2518,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
